--- a/file/daejeon-seo-gu.xlsx
+++ b/file/daejeon-seo-gu.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A9932A-F14A-4B88-AF69-EA6707E3CC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FBB35C-6D80-4B15-94DD-FF550A6A6614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DC5DF2F-D05E-417E-989D-0C98ADAE6296}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -504,39 +493,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -588,7 +577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -699,6 +688,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -707,13 +703,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -778,31 +767,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -812,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F5D2FB-DC45-4604-9C96-6B4EE480A7A6}">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1346,9 +1315,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>8907</v>
+    <row r="67" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>5747</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>67</v>
@@ -1634,9 +1603,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
-        <v>111290</v>
+    <row r="103" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>114075</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>103</v>

--- a/file/daejeon-seo-gu.xlsx
+++ b/file/daejeon-seo-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FBB35C-6D80-4B15-94DD-FF550A6A6614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C79422-A1C7-4484-9568-3F8D4F42A327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DC5DF2F-D05E-417E-989D-0C98ADAE6296}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>아파트명</t>
   </si>
@@ -66,9 +63,6 @@
     <t>황실타운</t>
   </si>
   <si>
-    <t>은뜰마을</t>
-  </si>
-  <si>
     <t>전원</t>
   </si>
   <si>
@@ -240,27 +234,6 @@
     <t>초록5단지S클래스</t>
   </si>
   <si>
-    <t>우성</t>
-  </si>
-  <si>
-    <t>강변들보람</t>
-  </si>
-  <si>
-    <t>삼정하이츠</t>
-  </si>
-  <si>
-    <t>은아1단지</t>
-  </si>
-  <si>
-    <t>은아2단지</t>
-  </si>
-  <si>
-    <t>은아3단지</t>
-  </si>
-  <si>
-    <t>은아5단지</t>
-  </si>
-  <si>
     <t>13블럭금성백조예미지</t>
   </si>
   <si>
@@ -337,6 +310,9 @@
   </si>
   <si>
     <t>관저더샵2차</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -359,13 +335,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -377,6 +346,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -399,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -427,13 +403,28 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,26 +434,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -781,838 +784,809 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F5D2FB-DC45-4604-9C96-6B4EE480A7A6}">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="23.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>5763</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>5763</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>5758</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>5758</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>5767</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>5767</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>5760</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>5760</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>5854</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5854</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5894</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6170</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>5874</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>5874</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>5877</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>5877</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>5866</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>5866</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>5847</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>5847</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>5899</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>5899</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>5886</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>8740</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>5889</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>5886</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>5852</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>5889</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>5892</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>5852</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>9626</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>5892</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>5967</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>9626</v>
-      </c>
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>5972</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>5967</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>5948</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>5972</v>
-      </c>
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>5957</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>5948</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>5974</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>5957</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>5800</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>5974</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>6008</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>5800</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>5803</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>6008</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>5802</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>5803</v>
-      </c>
-      <c r="B26" s="6" t="s">
+    <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>5801</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>5802</v>
-      </c>
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>5804</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>5801</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>5806</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>5804</v>
-      </c>
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>24922</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>5806</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>5997</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>24922</v>
-      </c>
-      <c r="B31" s="6" t="s">
+    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>139646</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>5997</v>
-      </c>
-      <c r="B32" s="6" t="s">
+    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>5986</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>139646</v>
-      </c>
-      <c r="B33" s="6" t="s">
+    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>5962</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>5986</v>
-      </c>
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>5990</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>5962</v>
-      </c>
-      <c r="B35" s="5" t="s">
+    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>6012</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>5990</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="37" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>5981</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>6012</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>5951</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>5981</v>
-      </c>
-      <c r="B38" s="6" t="s">
+    <row r="39" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>5792</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>5951</v>
-      </c>
-      <c r="B39" s="6" t="s">
+    <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>5777</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>5792</v>
-      </c>
-      <c r="B40" s="6" t="s">
+    <row r="41" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>5780</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>5777</v>
-      </c>
-      <c r="B41" s="5" t="s">
+    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>5793</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>5780</v>
-      </c>
-      <c r="B42" s="5" t="s">
+    <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>5783</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>5793</v>
-      </c>
-      <c r="B43" s="5" t="s">
+    <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>120178</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>5783</v>
-      </c>
-      <c r="B44" s="5" t="s">
+    <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>120179</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>120178</v>
-      </c>
-      <c r="B45" s="6" t="s">
+    <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>112370</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>120179</v>
-      </c>
-      <c r="B46" s="5" t="s">
+    <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>5814</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>112370</v>
-      </c>
-      <c r="B47" s="6" t="s">
+    <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>5817</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>5814</v>
-      </c>
-      <c r="B48" s="6" t="s">
+    <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>5815</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>5817</v>
-      </c>
-      <c r="B49" s="5" t="s">
+    <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>5812</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>5815</v>
-      </c>
-      <c r="B50" s="5" t="s">
+    <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>5755</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>5812</v>
-      </c>
-      <c r="B51" s="6" t="s">
+    <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>5745</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>5755</v>
-      </c>
-      <c r="B52" s="5" t="s">
+    <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>23920</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>5745</v>
-      </c>
-      <c r="B53" s="5" t="s">
+    <row r="54" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>5741</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>23920</v>
-      </c>
-      <c r="B54" s="5" t="s">
+    <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>9138</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
-        <v>5741</v>
-      </c>
-      <c r="B55" s="5" t="s">
+    <row r="56" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>5799</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>9138</v>
-      </c>
-      <c r="B56" s="5" t="s">
+    <row r="57" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>5794</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <v>5799</v>
-      </c>
-      <c r="B57" s="6" t="s">
+    <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>5827</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>5794</v>
-      </c>
-      <c r="B58" s="6" t="s">
+    <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>5823</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>5827</v>
-      </c>
-      <c r="B59" s="6" t="s">
+    <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>127558</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>5823</v>
-      </c>
-      <c r="B60" s="6" t="s">
+    <row r="61" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>5839</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>127558</v>
-      </c>
-      <c r="B61" s="5" t="s">
+    <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>8906</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>5839</v>
-      </c>
-      <c r="B62" s="6" t="s">
+    <row r="63" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>8908</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
-        <v>8906</v>
-      </c>
-      <c r="B63" s="5" t="s">
+    <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>19081</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>8908</v>
-      </c>
-      <c r="B64" s="5" t="s">
+    <row r="65" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>115820</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>19081</v>
-      </c>
-      <c r="B65" s="6" t="s">
+    <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>8907</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>115820</v>
-      </c>
-      <c r="B66" s="5" t="s">
+    <row r="67" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>11726</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>5747</v>
-      </c>
-      <c r="B67" s="6" t="s">
+    <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>18923</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>11726</v>
-      </c>
-      <c r="B68" s="5" t="s">
+    <row r="69" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>13134</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>18923</v>
-      </c>
-      <c r="B69" s="5" t="s">
+    <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>101373</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>13134</v>
-      </c>
-      <c r="B70" s="6" t="s">
+    <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>100580</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
-        <v>6027</v>
-      </c>
-      <c r="B71" s="6" t="s">
+    <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>103921</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>6032</v>
-      </c>
-      <c r="B72" s="6" t="s">
+    <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>122931</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
-        <v>6023</v>
-      </c>
-      <c r="B73" s="5" t="s">
+    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>101355</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>5749</v>
-      </c>
-      <c r="B74" s="6" t="s">
+    <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>103962</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
-        <v>25117</v>
-      </c>
-      <c r="B75" s="5" t="s">
+    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>103972</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>25116</v>
-      </c>
-      <c r="B76" s="5" t="s">
+    <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>103924</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
-        <v>25115</v>
-      </c>
-      <c r="B77" s="6" t="s">
+    <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>5927</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>101373</v>
-      </c>
-      <c r="B78" s="5" t="s">
+    <row r="79" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>5929</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
-        <v>100580</v>
-      </c>
-      <c r="B79" s="6" t="s">
+    <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>5913</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>103921</v>
-      </c>
-      <c r="B80" s="5" t="s">
+    <row r="81" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <v>5932</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>122931</v>
-      </c>
-      <c r="B81" s="6" t="s">
+    <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <v>18932</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>101355</v>
-      </c>
-      <c r="B82" s="5" t="s">
+    <row r="83" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
+        <v>12716</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
-        <v>103962</v>
-      </c>
-      <c r="B83" s="6" t="s">
+    <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
+        <v>9516</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>103972</v>
-      </c>
-      <c r="B84" s="6" t="s">
+    <row r="85" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>110608</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
-        <v>103924</v>
-      </c>
-      <c r="B85" s="5" t="s">
+    <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>107828</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>5927</v>
-      </c>
-      <c r="B86" s="6" t="s">
+    <row r="87" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>108763</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
-        <v>5929</v>
-      </c>
-      <c r="B87" s="5" t="s">
+    <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>5922</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>5913</v>
-      </c>
-      <c r="B88" s="5" t="s">
+    <row r="89" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>5909</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
-        <v>5932</v>
-      </c>
-      <c r="B89" s="6" t="s">
+    <row r="90" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>9407</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>18932</v>
-      </c>
-      <c r="B90" s="6" t="s">
+    <row r="91" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>111686</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
-        <v>12716</v>
-      </c>
-      <c r="B91" s="5" t="s">
+    <row r="92" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>111290</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>9516</v>
-      </c>
-      <c r="B92" s="6" t="s">
+    <row r="93" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <v>5903</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
-        <v>110608</v>
-      </c>
-      <c r="B93" s="5" t="s">
+    <row r="94" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>5907</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>107828</v>
-      </c>
-      <c r="B94" s="5" t="s">
+    <row r="95" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>114075</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>108763</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="96" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>5922</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
-        <v>5909</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>9407</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
-        <v>111686</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="A96" s="2"/>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2"/>
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>111290</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
-        <v>5903</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>5907</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>114075</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/file/daejeon-seo-gu.xlsx
+++ b/file/daejeon-seo-gu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C79422-A1C7-4484-9568-3F8D4F42A327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD8CB95-D858-4F1D-8AE7-C051F4F7EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DC5DF2F-D05E-417E-989D-0C98ADAE6296}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1DC5DF2F-D05E-417E-989D-0C98ADAE6296}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>아파트명</t>
   </si>
@@ -156,12 +156,6 @@
     <t>산호</t>
   </si>
   <si>
-    <t>e편한세상두산1단지</t>
-  </si>
-  <si>
-    <t>e편한세상두산2단지</t>
-  </si>
-  <si>
     <t>다우갤러리휴리움</t>
   </si>
   <si>
@@ -313,13 +307,29 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편한세상둔산</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +363,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -486,9 +503,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -526,7 +543,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -632,7 +649,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -774,7 +791,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -782,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F5D2FB-DC45-4604-9C96-6B4EE480A7A6}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -795,7 +812,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1137,421 +1154,417 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="7">
-        <v>120178</v>
+        <v>182279</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>112370</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>120179</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>112370</v>
+        <v>5814</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>5817</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>5814</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
-        <v>5817</v>
+        <v>5815</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>5812</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
-        <v>5815</v>
-      </c>
-      <c r="B49" s="10" t="s">
+    <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>5755</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>5812</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
-        <v>5755</v>
+        <v>5745</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
-        <v>5745</v>
+        <v>23920</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
-        <v>23920</v>
+        <v>5741</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
-        <v>5741</v>
+        <v>9138</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>5799</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
-        <v>9138</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>5799</v>
+        <v>5794</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>5794</v>
+        <v>5827</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>5827</v>
+        <v>5823</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>127558</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
-        <v>5823</v>
-      </c>
-      <c r="B59" s="8" t="s">
+    <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>5839</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
-        <v>127558</v>
-      </c>
-      <c r="B60" s="10" t="s">
+    <row r="61" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>8906</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>5839</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
-        <v>8906</v>
+        <v>8908</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>19081</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
-        <v>8908</v>
-      </c>
-      <c r="B63" s="10" t="s">
+    <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>115820</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
-        <v>19081</v>
-      </c>
-      <c r="B64" s="8" t="s">
+    <row r="65" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>8907</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
-        <v>115820</v>
-      </c>
-      <c r="B65" s="10" t="s">
+    <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>11726</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
-        <v>8907</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
-        <v>11726</v>
+        <v>18923</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>13134</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9">
-        <v>18923</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
-        <v>13134</v>
+        <v>101373</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>100580</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
-        <v>101373</v>
-      </c>
-      <c r="B70" s="8" t="s">
+    <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>103921</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
-        <v>100580</v>
-      </c>
-      <c r="B71" s="10" t="s">
+    <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>122931</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
-        <v>103921</v>
-      </c>
-      <c r="B72" s="8" t="s">
+    <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>101355</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
-        <v>122931</v>
-      </c>
-      <c r="B73" s="10" t="s">
+    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>103962</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
-        <v>101355</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
-        <v>103962</v>
+        <v>103972</v>
       </c>
       <c r="B75" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>103924</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9">
-        <v>103972</v>
-      </c>
-      <c r="B76" s="10" t="s">
+    <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <v>5927</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
-        <v>103924</v>
-      </c>
-      <c r="B77" s="8" t="s">
+    <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>5929</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9">
-        <v>5927</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
-        <v>5929</v>
+        <v>5913</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>5932</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
-        <v>5913</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
-        <v>5932</v>
+        <v>18932</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
+        <v>12716</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9">
-        <v>18932</v>
-      </c>
-      <c r="B82" s="10" t="s">
+    <row r="83" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>9516</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
-        <v>12716</v>
-      </c>
-      <c r="B83" s="8" t="s">
+    <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>110608</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9">
-        <v>9516</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
-        <v>110608</v>
+        <v>107828</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
-        <v>107828</v>
+        <v>108763</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
-        <v>108763</v>
+        <v>5922</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
-        <v>5922</v>
+        <v>5909</v>
       </c>
       <c r="B88" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <v>9407</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
-        <v>5909</v>
-      </c>
-      <c r="B89" s="8" t="s">
+    <row r="90" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>111686</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="9">
-        <v>9407</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
-        <v>111686</v>
+        <v>111290</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
+        <v>5903</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
-        <v>111290</v>
-      </c>
-      <c r="B92" s="8" t="s">
+    <row r="93" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>5907</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
-        <v>5903</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
-        <v>5907</v>
+        <v>114075</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
-        <v>114075</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
@@ -1559,11 +1572,11 @@
     </row>
     <row r="97" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="4"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
@@ -1571,19 +1584,15 @@
     </row>
     <row r="100" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
       <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
